--- a/rbgCalibrationV2.xlsx
+++ b/rbgCalibrationV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaonengquan/Documents/ista303/skittle-sorter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA946C30-D9B3-024D-AC51-BCE42DAD4F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1228CD-80B6-CE49-B245-586EBBD0B71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6F75EF07-C921-9A4B-B905-F79BEFDC8FDF}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +114,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -187,6 +194,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +512,7 @@
   <dimension ref="B1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.92400000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D3" s="2">
-        <v>0.255</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.28699999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>1</v>
@@ -587,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.98099999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="D4" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E4" s="2">
-        <v>0.157</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
@@ -616,9 +624,15 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.38400000000000001</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -632,9 +646,15 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.41499999999999998</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -648,9 +668,15 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.34100000000000003</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -664,9 +690,15 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.33400000000000002</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -748,15 +780,15 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C3:C12)</f>
-        <v>0.95250000000000001</v>
+        <v>0.82716666666666649</v>
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D3:D12)</f>
-        <v>0.1865</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E3:E12)</f>
-        <v>0.22199999999999998</v>
+        <v>0.37399999999999994</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>6</v>
@@ -786,7 +818,7 @@
       </c>
       <c r="C14">
         <f>SQRT(C13^2+D13^2+E13^2)</f>
-        <v>0.99565179656343716</v>
+        <v>0.99815113807701694</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -807,15 +839,15 @@
       </c>
       <c r="C15">
         <f>C13/C14</f>
-        <v>0.95665975121786684</v>
+        <v>0.82869881635384424</v>
       </c>
       <c r="D15">
         <f>D13/C14</f>
-        <v>0.18731448147205476</v>
+        <v>0.41576869891619433</v>
       </c>
       <c r="E15">
         <f>E13/C14</f>
-        <v>0.22296951681928234</v>
+        <v>0.37469275516784739</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -873,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>0.44600000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D18" s="2">
-        <v>0.82099999999999995</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.35699999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="8" t="s">
@@ -906,13 +938,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D19" s="2">
-        <v>0.83199999999999996</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E19" s="2">
-        <v>0.28499999999999998</v>
+        <v>0.371</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="3" t="s">
@@ -936,9 +968,15 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.38100000000000001</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
         <v>2</v>
@@ -961,9 +999,15 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.35099999999999998</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -978,9 +1022,15 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.372</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1075,15 +1125,15 @@
       </c>
       <c r="C28" s="1">
         <f>AVERAGE(C18:C27)</f>
-        <v>0.46099999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D28" s="1">
         <f>AVERAGE(D18:D27)</f>
-        <v>0.82650000000000001</v>
+        <v>0.76239999999999997</v>
       </c>
       <c r="E28" s="1">
         <f>AVERAGE(E18:E27)</f>
-        <v>0.32099999999999995</v>
+        <v>0.36</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1102,7 +1152,7 @@
       </c>
       <c r="C29">
         <f>SQRT(C28^2+D28^2+E28^2)</f>
-        <v>0.99933190182241249</v>
+        <v>0.99961130445788771</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>6</v>
@@ -1125,20 +1175,20 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C30">
         <f>C28/C29</f>
-        <v>0.46130819916716975</v>
+        <v>0.5372088106698909</v>
       </c>
       <c r="D30">
         <f>D28/C29</f>
-        <v>0.82705255230296271</v>
+        <v>0.76269645671270903</v>
       </c>
       <c r="E30">
         <f>E28/C29</f>
-        <v>0.32121460289080578</v>
+        <v>0.36013998480663073</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>11</v>
@@ -1202,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>0.91400000000000003</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D33" s="3">
-        <v>0.33600000000000002</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>0.22800000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1"/>
@@ -1220,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>0.92400000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D34" s="3">
-        <v>0.313</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E34" s="3">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1"/>
@@ -1235,9 +1285,15 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="C35" s="3">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.19700000000000001</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1245,15 +1301,27 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.27400000000000002</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
@@ -1291,15 +1359,15 @@
       </c>
       <c r="C43" s="3">
         <f>AVERAGE(C33:C42)</f>
-        <v>0.91900000000000004</v>
+        <v>0.91780000000000006</v>
       </c>
       <c r="D43" s="3">
         <f>AVERAGE(D33:D42)</f>
-        <v>0.32450000000000001</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="E43" s="3">
         <f>AVERAGE(E33:E42)</f>
-        <v>0.2235</v>
+        <v>0.20939999999999998</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -1308,7 +1376,7 @@
       </c>
       <c r="C44" s="3">
         <f>SQRT(C43^2+D43^2+E43^2)</f>
-        <v>0.99990674565181337</v>
+        <v>0.99584147332795903</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1319,15 +1387,15 @@
       </c>
       <c r="C45" s="3">
         <f>C43/C44</f>
-        <v>0.91908570873869611</v>
+        <v>0.92163263388985439</v>
       </c>
       <c r="D45" s="3">
         <f>D43/C44</f>
-        <v>0.32453026385822292</v>
+        <v>0.32615632979671461</v>
       </c>
       <c r="E45" s="3">
         <f>E43/C44</f>
-        <v>0.22352084429064045</v>
+        <v>0.21027443183322672</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
@@ -1349,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="3">
-        <v>0.84299999999999997</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D48" s="3">
-        <v>0.51100000000000001</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="E48" s="3">
-        <v>0.16600000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -1363,50 +1431,86 @@
         <v>2</v>
       </c>
       <c r="C49" s="3">
-        <v>0.73</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="D49" s="3">
-        <v>0.64600000000000002</v>
+        <v>0.66</v>
       </c>
       <c r="E49" s="3">
-        <v>0.223</v>
+        <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="C50" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.622</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.23400000000000001</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="C51" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.309</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="C52" s="3">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.30499999999999999</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="C53" s="3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.26800000000000002</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="C54" s="3">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.311</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="C55" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.35599999999999998</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
@@ -1426,15 +1530,15 @@
       </c>
       <c r="C58" s="3">
         <f>AVERAGE(C48:C57)</f>
-        <v>0.78649999999999998</v>
+        <v>0.68924999999999992</v>
       </c>
       <c r="D58" s="3">
         <f>AVERAGE(D48:D57)</f>
-        <v>0.57850000000000001</v>
+        <v>0.65775000000000006</v>
       </c>
       <c r="E58" s="3">
         <f>AVERAGE(E48:E57)</f>
-        <v>0.19450000000000001</v>
+        <v>0.29574999999999996</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
@@ -1443,7 +1547,7 @@
       </c>
       <c r="C59" s="3">
         <f>SQRT(C58^2+D58^2+E58^2)</f>
-        <v>0.99552737280297821</v>
+        <v>0.99758141898293184</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1454,15 +1558,15 @@
       </c>
       <c r="C60" s="3">
         <f>C58/C59</f>
-        <v>0.79003352543240801</v>
+        <v>0.69092104853227287</v>
       </c>
       <c r="D60" s="3">
         <f>D58/C59</f>
-        <v>0.58109903936763896</v>
+        <v>0.65934467852318113</v>
       </c>
       <c r="E60" s="3">
         <f>E58/C59</f>
-        <v>0.19537383432498837</v>
+        <v>0.29646702952980736</v>
       </c>
     </row>
   </sheetData>
